--- a/fixed/10V_regulator/275nm_SU_CULBN2_24mA/production/ver_0p1_rev_1/BOM_JLCPCB_275nm_SU_CULBN2_24mA.xlsx
+++ b/fixed/10V_regulator/275nm_SU_CULBN2_24mA/production/ver_0p1_rev_1/BOM_JLCPCB_275nm_SU_CULBN2_24mA.xlsx
@@ -215,13 +215,13 @@
     <t xml:space="preserve">C102618</t>
   </si>
   <si>
-    <t xml:space="preserve">LMV321 Operational Amplifier </t>
+    <t xml:space="preserve">AS321 Operational Amplifier </t>
   </si>
   <si>
     <t xml:space="preserve">U2</t>
   </si>
   <si>
-    <t xml:space="preserve">C686637</t>
+    <t xml:space="preserve">C144156</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -469,7 +469,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="3" width="8.89"/>
   </cols>
